--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lrrc4b-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lrrc4b-Ptprf.xlsx
@@ -549,34 +549,34 @@
         <v>0.4634997716650157</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.101297</v>
+        <v>0.1863256666666667</v>
       </c>
       <c r="N2">
-        <v>0.303891</v>
+        <v>0.5589770000000001</v>
       </c>
       <c r="O2">
-        <v>0.009886476207827108</v>
+        <v>0.01657678358851065</v>
       </c>
       <c r="P2">
-        <v>0.009886476207827108</v>
+        <v>0.01657678358851065</v>
       </c>
       <c r="Q2">
-        <v>0.020870828692</v>
+        <v>0.03838979505733334</v>
       </c>
       <c r="R2">
-        <v>0.187837458228</v>
+        <v>0.345508155516</v>
       </c>
       <c r="S2">
-        <v>0.004582379464899474</v>
+        <v>0.007683335408215065</v>
       </c>
       <c r="T2">
-        <v>0.004582379464899475</v>
+        <v>0.007683335408215065</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>17.489707</v>
       </c>
       <c r="O3">
-        <v>0.5689920798489169</v>
+        <v>0.5186672939413604</v>
       </c>
       <c r="P3">
-        <v>0.5689920798489169</v>
+        <v>0.5186672939413604</v>
       </c>
       <c r="Q3">
         <v>1.201169757150667</v>
@@ -635,10 +635,10 @@
         <v>10.810527814356</v>
       </c>
       <c r="S3">
-        <v>0.2637276990891753</v>
+        <v>0.2404021723119321</v>
       </c>
       <c r="T3">
-        <v>0.2637276990891754</v>
+        <v>0.2404021723119321</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.250245</v>
+        <v>5.212463666666667</v>
       </c>
       <c r="N4">
-        <v>12.750735</v>
+        <v>15.637391</v>
       </c>
       <c r="O4">
-        <v>0.4148192549624977</v>
+        <v>0.4637358003923671</v>
       </c>
       <c r="P4">
-        <v>0.4148192549624976</v>
+        <v>0.4637358003923669</v>
       </c>
       <c r="Q4">
-        <v>0.8757034788200001</v>
+        <v>1.073955164025334</v>
       </c>
       <c r="R4">
-        <v>7.88133130938</v>
+        <v>9.665596476228</v>
       </c>
       <c r="S4">
-        <v>0.1922686299573696</v>
+        <v>0.2149414375947554</v>
       </c>
       <c r="T4">
-        <v>0.1922686299573696</v>
+        <v>0.2149414375947554</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,34 +735,34 @@
         <v>0.4634997716650157</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06457233333333333</v>
+        <v>0.01146633333333333</v>
       </c>
       <c r="N5">
-        <v>0.193717</v>
+        <v>0.034399</v>
       </c>
       <c r="O5">
-        <v>0.006302188980758376</v>
+        <v>0.001020122077762015</v>
       </c>
       <c r="P5">
-        <v>0.006302188980758376</v>
+        <v>0.001020122077762015</v>
       </c>
       <c r="Q5">
-        <v>0.01330422527066667</v>
+        <v>0.002362477454666667</v>
       </c>
       <c r="R5">
-        <v>0.119738027436</v>
+        <v>0.021262297092</v>
       </c>
       <c r="S5">
-        <v>0.002921063153571285</v>
+        <v>0.0004728263501131353</v>
       </c>
       <c r="T5">
-        <v>0.002921063153571285</v>
+        <v>0.0004728263501131352</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2384863333333334</v>
+        <v>0.2384863333333333</v>
       </c>
       <c r="H6">
-        <v>0.7154590000000001</v>
+        <v>0.715459</v>
       </c>
       <c r="I6">
-        <v>0.5365002283349843</v>
+        <v>0.5365002283349842</v>
       </c>
       <c r="J6">
-        <v>0.5365002283349843</v>
+        <v>0.5365002283349842</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.101297</v>
+        <v>0.1863256666666667</v>
       </c>
       <c r="N6">
-        <v>0.303891</v>
+        <v>0.5589770000000001</v>
       </c>
       <c r="O6">
-        <v>0.009886476207827108</v>
+        <v>0.01657678358851065</v>
       </c>
       <c r="P6">
-        <v>0.009886476207827108</v>
+        <v>0.01657678358851065</v>
       </c>
       <c r="Q6">
-        <v>0.02415795010766667</v>
+        <v>0.04443612504922223</v>
       </c>
       <c r="R6">
-        <v>0.217421550969</v>
+        <v>0.399925125443</v>
       </c>
       <c r="S6">
-        <v>0.005304096742927634</v>
+        <v>0.008893448180295584</v>
       </c>
       <c r="T6">
-        <v>0.005304096742927634</v>
+        <v>0.008893448180295582</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2384863333333334</v>
+        <v>0.2384863333333333</v>
       </c>
       <c r="H7">
-        <v>0.7154590000000001</v>
+        <v>0.715459</v>
       </c>
       <c r="I7">
-        <v>0.5365002283349843</v>
+        <v>0.5365002283349842</v>
       </c>
       <c r="J7">
-        <v>0.5365002283349843</v>
+        <v>0.5365002283349842</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>17.489707</v>
       </c>
       <c r="O7">
-        <v>0.5689920798489169</v>
+        <v>0.5186672939413604</v>
       </c>
       <c r="P7">
-        <v>0.5689920798489169</v>
+        <v>0.5186672939413604</v>
       </c>
       <c r="Q7">
         <v>1.390352031168111</v>
@@ -883,10 +883,10 @@
         <v>12.513168280513</v>
       </c>
       <c r="S7">
-        <v>0.3052643807597415</v>
+        <v>0.2782651216294282</v>
       </c>
       <c r="T7">
-        <v>0.3052643807597415</v>
+        <v>0.2782651216294282</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2384863333333334</v>
+        <v>0.2384863333333333</v>
       </c>
       <c r="H8">
-        <v>0.7154590000000001</v>
+        <v>0.715459</v>
       </c>
       <c r="I8">
-        <v>0.5365002283349843</v>
+        <v>0.5365002283349842</v>
       </c>
       <c r="J8">
-        <v>0.5365002283349843</v>
+        <v>0.5365002283349842</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.250245</v>
+        <v>5.212463666666667</v>
       </c>
       <c r="N8">
-        <v>12.750735</v>
+        <v>15.637391</v>
       </c>
       <c r="O8">
-        <v>0.4148192549624977</v>
+        <v>0.4637358003923671</v>
       </c>
       <c r="P8">
-        <v>0.4148192549624976</v>
+        <v>0.4637358003923669</v>
       </c>
       <c r="Q8">
-        <v>1.013625345818334</v>
+        <v>1.243101347496556</v>
       </c>
       <c r="R8">
-        <v>9.122628112365001</v>
+        <v>11.187912127469</v>
       </c>
       <c r="S8">
-        <v>0.2225506250051281</v>
+        <v>0.2487943627976116</v>
       </c>
       <c r="T8">
-        <v>0.2225506250051281</v>
+        <v>0.2487943627976115</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2384863333333334</v>
+        <v>0.2384863333333333</v>
       </c>
       <c r="H9">
-        <v>0.7154590000000001</v>
+        <v>0.715459</v>
       </c>
       <c r="I9">
-        <v>0.5365002283349843</v>
+        <v>0.5365002283349842</v>
       </c>
       <c r="J9">
-        <v>0.5365002283349843</v>
+        <v>0.5365002283349842</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06457233333333333</v>
+        <v>0.01146633333333333</v>
       </c>
       <c r="N9">
-        <v>0.193717</v>
+        <v>0.034399</v>
       </c>
       <c r="O9">
-        <v>0.006302188980758376</v>
+        <v>0.001020122077762015</v>
       </c>
       <c r="P9">
-        <v>0.006302188980758376</v>
+        <v>0.001020122077762015</v>
       </c>
       <c r="Q9">
-        <v>0.01539961901144444</v>
+        <v>0.002734563793444444</v>
       </c>
       <c r="R9">
-        <v>0.138596571103</v>
+        <v>0.024611074141</v>
       </c>
       <c r="S9">
-        <v>0.003381125827187091</v>
+        <v>0.0005472957276488796</v>
       </c>
       <c r="T9">
-        <v>0.003381125827187091</v>
+        <v>0.0005472957276488795</v>
       </c>
     </row>
   </sheetData>
